--- a/similarities/split_global/harmonic_similarity_timestamps_386.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_386.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,279 +484,311 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:11.950000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.080000', '0:00:26.260000')]</t>
+          <t>('0:00:59.400000', '0:01:07.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:59.680000', '0:01:05.780000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=59.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_268</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['E', 'A', 'C#:min', 'F#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C', 'F:maj', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:00:06.090000', '0:00:18.686825')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.240000', '0:00:24.820000')]</t>
+          <t>('0:01:58.227000', '0:02:18.210000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-268#t=6.09</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=118.227</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>['D/5', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:36.809519', '0:00:45.017773')]</t>
+          <t>('0:04:51.440000', '0:04:53.300000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:40.030000', '0:00:43.842000')]</t>
+          <t>('0:01:22.297891', '0:01:32.619160')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=36.809519']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=291.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=40.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=82.297891</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -764,418 +796,438 @@
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:10.980000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:46.320000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.300000', '0:01:11.060000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=66.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:21.100000', '0:00:29.500000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=21.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E', 'A']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Ab']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:16.179070')]</t>
+          <t>('0:00:00.421247', '0:00:07.505864')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.702000', '0:00:15.006000')]</t>
+          <t>('0:00:10.460000', '0:00:13.160000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>['F#:min', 'B', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:30.971000', '0:01:36.810000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:00:12.196848', '0:00:18.779705')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=12.196848</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+          <t>('0:00:01.300000', '0:00:02.670000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=118.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A#', 'A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:19.960000', '0:00:23.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:04:29.700000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>isophonics_257</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:31.767000', '0:00:37.686000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:59.611995', '0:01:08.679387')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=31.767</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=59.611995</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
